--- a/M2_Agile_and_Github_Assignments/a1_Agile_Exercise/Agile_Project_Plan.xlsx
+++ b/M2_Agile_and_Github_Assignments/a1_Agile_Exercise/Agile_Project_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\ShivamGupta\M2_Agile_and_Github_Assignments\a1_Agile_Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829B38E-965F-427D-AFA6-953642692428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33646E0-0BF2-48AA-AA67-DF926890EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Sprint</t>
   </si>
@@ -131,13 +131,19 @@
   </si>
   <si>
     <t>User signup/login, Session management, Testing</t>
+  </si>
+  <si>
+    <t>jira link</t>
+  </si>
+  <si>
+    <t>https://nexturn-assessment.atlassian.net/jira/software/projects/AMP/boards/2/backlog?epics=visible&amp;atlOrigin=eyJpIjoiODVmYzNjN2VmMDM1NGU1MDkwMzdlZDJmOTYxMWMxMjUiLCJwIjoiaiJ9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +155,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,16 +200,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +534,7 @@
     <col min="5" max="5" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -546,7 +568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -563,7 +585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -580,7 +602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -597,7 +619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -614,7 +636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -631,7 +653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -648,7 +670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -665,7 +687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -682,7 +704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -699,7 +721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -716,7 +738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -733,7 +755,25 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:F16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{50752D76-514E-4281-9DAE-C3696D458146}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/M2_Agile_and_Github_Assignments/a1_Agile_Exercise/Agile_Project_Plan.xlsx
+++ b/M2_Agile_and_Github_Assignments/a1_Agile_Exercise/Agile_Project_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\ShivamGupta\M2_Agile_and_Github_Assignments\a1_Agile_Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829B38E-965F-427D-AFA6-953642692428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6FA7C-5041-407E-86FA-351A370C9103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Sprint</t>
   </si>
@@ -131,13 +131,19 @@
   </si>
   <si>
     <t>User signup/login, Session management, Testing</t>
+  </si>
+  <si>
+    <t>jira link</t>
+  </si>
+  <si>
+    <t>https://nexturn-assessment.atlassian.net/jira/software/projects/AMP/boards/2/backlog?epics=visible&amp;atlOrigin=eyJpIjoiODVmYzNjN2VmMDM1NGU1MDkwMzdlZDJmOTYxMWMxMjUiLCJwIjoiaiJ9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +159,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -186,16 +206,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,24 +541,24 @@
     <col min="5" max="5" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -546,7 +575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -563,7 +592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -580,7 +609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -597,7 +626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -614,7 +643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -631,7 +660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -648,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -665,7 +694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -682,7 +711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -699,7 +728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -716,7 +745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -733,7 +762,25 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:F16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{50752D76-514E-4281-9DAE-C3696D458146}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>